--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/base/LOO_P2Et/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/base/LOO_P2Et/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25.87105874854765</v>
+        <v>25.87105874854764</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.59637463137992</v>
+        <v>29.5963746313799</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.66566097991665</v>
+        <v>32.66566097991663</v>
       </c>
     </row>
     <row r="5">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.73340373418699</v>
+        <v>23.733403734187</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.27105277605621</v>
+        <v>25.27105277605623</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>21.61275115879793</v>
+        <v>21.61275115879791</v>
       </c>
     </row>
     <row r="9">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.38596079227867</v>
+        <v>35.38596079227868</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.62434605681615</v>
+        <v>37.62434605681616</v>
       </c>
     </row>
     <row r="14">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.2198762534095</v>
+        <v>27.21987625340952</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.19874223183091</v>
+        <v>30.1987422318309</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.89006120502354</v>
+        <v>28.89006120502352</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34.72570218524548</v>
+        <v>34.7257021852455</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.37937813061515</v>
+        <v>36.37937813061517</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23.90095558444004</v>
+        <v>23.90095558444006</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.49819904148472</v>
+        <v>32.4981990414847</v>
       </c>
     </row>
     <row r="22">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>24.97594925233888</v>
+        <v>24.97594925233885</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>40.69165595994166</v>
+        <v>40.69165595994163</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>43.10468545221264</v>
+        <v>43.10468545221268</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>43.47791734441974</v>
+        <v>43.47791734441972</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>47.81667401335461</v>
+        <v>47.81667401335457</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>49.36582482688349</v>
+        <v>49.36582482688351</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.31634681903781</v>
+        <v>30.31634681903782</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>47.08881498935062</v>
+        <v>47.08881498935064</v>
       </c>
     </row>
     <row r="31">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.33669858084063</v>
+        <v>25.33669858084062</v>
       </c>
     </row>
     <row r="33">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.94051587107946</v>
+        <v>34.94051587107948</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>21.87546363924231</v>
+        <v>21.87546363924235</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.83526713212379</v>
+        <v>29.83526713212378</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.53223872836606</v>
+        <v>35.53223872836607</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>22.50879980032357</v>
+        <v>22.50879980032356</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.91094689081462</v>
+        <v>36.91094689081461</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43.42083412587576</v>
+        <v>43.42083412587575</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>39.24059579757358</v>
+        <v>39.24059579757359</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>43.12682407803257</v>
+        <v>43.12682407803256</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>48.14320893493034</v>
+        <v>48.14320893493031</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.93748891163632</v>
+        <v>25.93748891163631</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>43.72028468153262</v>
+        <v>43.72028468153265</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.66905382514071</v>
+        <v>46.66905382514069</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>25.08389822917753</v>
+        <v>25.08389822917754</v>
       </c>
     </row>
     <row r="48">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.33224282094149</v>
+        <v>36.33224282094148</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>22.97610955809689</v>
+        <v>22.97610955809692</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.17870898997985</v>
+        <v>30.17870898997986</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.20138354310737</v>
+        <v>36.20138354310738</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>22.85280738782162</v>
+        <v>22.8528073878216</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>35.43935932547471</v>
+        <v>35.43935932547468</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>43.69229725892274</v>
+        <v>43.69229725892276</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>35.34588672393057</v>
+        <v>35.3458867239306</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>39.16670755474167</v>
+        <v>39.16670755474165</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.72007548621674</v>
+        <v>45.72007548621676</v>
       </c>
     </row>
     <row r="59">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>40.85453594306219</v>
+        <v>40.85453594306222</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>45.05723713453755</v>
+        <v>45.05723713453752</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>23.77107098389124</v>
+        <v>23.77107098389126</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.33060127866842</v>
+        <v>31.33060127866844</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.65096055364039</v>
+        <v>33.65096055364041</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>20.77656233817526</v>
+        <v>20.77656233817527</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.17311201626468</v>
+        <v>26.1731120162647</v>
       </c>
     </row>
     <row r="67">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21.33651184186132</v>
+        <v>21.33651184186131</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>32.63178148899999</v>
+        <v>32.63178148900003</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.67534996318781</v>
+        <v>36.67534996318783</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>32.50248763406343</v>
+        <v>32.50248763406339</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>38.76312167374864</v>
+        <v>38.76312167374861</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>39.89445341760069</v>
+        <v>39.89445341760072</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>21.19649947501803</v>
+        <v>21.19649947501804</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>32.12737386758513</v>
+        <v>32.12737386758516</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>35.7989169122568</v>
+        <v>35.79891691225681</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.76352967488747</v>
+        <v>25.76352967488746</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.62283110025883</v>
+        <v>35.62283110025886</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.37916661721644</v>
+        <v>36.37916661721646</v>
       </c>
     </row>
     <row r="80">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.23770708179298</v>
+        <v>34.237707081793</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.52369889242618</v>
+        <v>36.52369889242621</v>
       </c>
     </row>
     <row r="83">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>43.90959311666012</v>
+        <v>43.90959311666011</v>
       </c>
     </row>
     <row r="85">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>44.4962396846211</v>
+        <v>44.49623968462109</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>48.15733568685255</v>
+        <v>48.15733568685258</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>48.49398150499553</v>
+        <v>48.4939815049955</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.48637892097088</v>
+        <v>24.48637892097089</v>
       </c>
     </row>
     <row r="90">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>46.95284177838648</v>
+        <v>46.95284177838645</v>
       </c>
     </row>
     <row r="92">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.20046010183075</v>
+        <v>35.20046010183074</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>21.95764093300752</v>
+        <v>21.95764093300754</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.63716865312738</v>
+        <v>32.63716865312739</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.14642262046243</v>
+        <v>36.14642262046242</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>22.57564740961645</v>
+        <v>22.57564740961644</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>41.1553439259827</v>
+        <v>41.15534392598272</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>46.64049027607864</v>
+        <v>46.64049027607868</v>
       </c>
     </row>
     <row r="101">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>46.02569702627304</v>
+        <v>46.02569702627301</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>48.61971250817341</v>
+        <v>48.61971250817344</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21.85228645940554</v>
+        <v>21.85228645940555</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>44.79952170386638</v>
+        <v>44.79952170386637</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>46.55305558472093</v>
+        <v>46.55305558472088</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.19610328834279</v>
+        <v>23.19610328834278</v>
       </c>
     </row>
     <row r="108">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.06049400387943</v>
+        <v>36.06049400387946</v>
       </c>
     </row>
     <row r="110">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.31936893265111</v>
+        <v>31.31936893265113</v>
       </c>
     </row>
     <row r="112">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>37.89382689121816</v>
+        <v>37.89382689121815</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>46.07563002033382</v>
+        <v>46.07563002033379</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>38.20291628056236</v>
+        <v>38.20291628056233</v>
       </c>
     </row>
     <row r="117">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>45.99506025803807</v>
+        <v>45.99506025803805</v>
       </c>
     </row>
     <row r="119">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.67307672553267</v>
+        <v>46.67307672553269</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>27.42390195685654</v>
+        <v>27.42390195685655</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.29727286694936</v>
+        <v>32.29727286694938</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>34.05186386521718</v>
+        <v>34.05186386521719</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>21.34870549050109</v>
+        <v>21.3487054905011</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>27.38744229860082</v>
+        <v>27.38744229860083</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.67415328964662</v>
+        <v>28.67415328964663</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>22.24134080173158</v>
+        <v>22.24134080173159</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>34.3210597208023</v>
+        <v>34.32105972080232</v>
       </c>
     </row>
     <row r="130">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>33.80998176258372</v>
+        <v>33.8099817625837</v>
       </c>
     </row>
     <row r="132">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>39.47233084938968</v>
+        <v>39.47233084938971</v>
       </c>
     </row>
     <row r="134">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>32.12309074795125</v>
+        <v>32.12309074795132</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>35.42095333138221</v>
+        <v>35.42095333138224</v>
       </c>
     </row>
     <row r="137">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>37.24642632593929</v>
+        <v>37.24642632593931</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>37.52619119719942</v>
+        <v>37.52619119719944</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>23.66697169686785</v>
+        <v>23.66697169686787</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>35.73007885766023</v>
+        <v>35.73007885766026</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>36.56673680347638</v>
+        <v>36.56673680347642</v>
       </c>
     </row>
     <row r="143">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>44.89352749833025</v>
+        <v>44.89352749833026</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>46.27972639888968</v>
+        <v>46.27972639888969</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>45.66388988459349</v>
+        <v>45.66388988459352</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>48.70897049948826</v>
+        <v>48.70897049948822</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>48.73743463488127</v>
+        <v>48.73743463488126</v>
       </c>
     </row>
     <row r="149">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.29006033088019</v>
+        <v>46.29006033088026</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>46.81847207284358</v>
+        <v>46.81847207284354</v>
       </c>
     </row>
     <row r="152">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>35.75782507008914</v>
+        <v>35.75782507008917</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.5597237422066</v>
+        <v>36.55972374220665</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>23.20659454064234</v>
+        <v>23.20659454064235</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>34.96374012879349</v>
+        <v>34.96374012879348</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>36.47791847904205</v>
+        <v>36.47791847904204</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>23.64743519702331</v>
+        <v>23.64743519702332</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>43.4451933210876</v>
+        <v>43.44519332108759</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>46.65830289024339</v>
+        <v>46.65830289024342</v>
       </c>
     </row>
     <row r="161">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>47.00599748180618</v>
+        <v>47.00599748180619</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.94818694087171</v>
+        <v>48.94818694087169</v>
       </c>
     </row>
     <row r="164">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>45.63842736788571</v>
+        <v>45.63842736788573</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>46.61863525048612</v>
+        <v>46.61863525048611</v>
       </c>
     </row>
     <row r="167">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.90380134299148</v>
+        <v>34.90380134299147</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>36.48351271489765</v>
+        <v>36.48351271489766</v>
       </c>
     </row>
     <row r="170">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.616087837421</v>
+        <v>34.61608783742099</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>36.54652730781796</v>
+        <v>36.54652730781797</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.67218448689268</v>
+        <v>23.67218448689267</v>
       </c>
     </row>
     <row r="174">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>40.89781082938893</v>
+        <v>40.8978108293889</v>
       </c>
     </row>
     <row r="177">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>45.84026883136083</v>
+        <v>45.84026883136082</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>27.45104559182377</v>
+        <v>27.45104559182378</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.44901963002221</v>
+        <v>44.44901963002222</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>46.01880480584997</v>
+        <v>46.01880480584999</v>
       </c>
     </row>
     <row r="182">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.25613954704843</v>
+        <v>29.25613954704842</v>
       </c>
     </row>
     <row r="184">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>20.44140760757081</v>
+        <v>20.44140760757079</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>23.87211320497343</v>
+        <v>23.87211320497346</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24.52175005942346</v>
+        <v>24.52175005942349</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>21.41295922240331</v>
+        <v>21.41295922240328</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.80021205892785</v>
+        <v>26.80021205892788</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.72267783552908</v>
+        <v>28.7226778355291</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.51989696877106</v>
+        <v>26.51989696877104</v>
       </c>
     </row>
     <row r="192">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34.03747326285306</v>
+        <v>34.03747326285305</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.5804998358416</v>
+        <v>22.58049983584158</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>26.67504036546759</v>
+        <v>26.67504036546764</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.88583346348317</v>
+        <v>28.88583346348316</v>
       </c>
     </row>
     <row r="197">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.95471492995016</v>
+        <v>23.95471492995019</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.93497554671619</v>
+        <v>33.93497554671618</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.22272174382171</v>
+        <v>37.22272174382167</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>26.68071175378704</v>
+        <v>26.68071175378703</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>41.42047290279684</v>
+        <v>41.42047290279687</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.07987181347222</v>
+        <v>45.07987181347224</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>42.43642363590187</v>
+        <v>42.43642363590188</v>
       </c>
     </row>
     <row r="207">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>49.27293697903302</v>
+        <v>49.27293697903298</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.46185599021363</v>
+        <v>30.46185599021362</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>46.20939465612437</v>
+        <v>46.20939465612439</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>47.29741263744004</v>
+        <v>47.29741263743999</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.68169366834745</v>
+        <v>25.68169366834744</v>
       </c>
     </row>
     <row r="213">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>34.40630295662648</v>
+        <v>34.40630295662649</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>23.83011879354337</v>
+        <v>23.83011879354335</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.74645113557199</v>
+        <v>36.74645113557198</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>44.80764703624912</v>
+        <v>44.80764703624907</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>37.28575257256981</v>
+        <v>37.28575257256978</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>41.46076207820153</v>
+        <v>41.46076207820151</v>
       </c>
     </row>
     <row r="223">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.44233481503588</v>
+        <v>26.44233481503587</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>42.20976695005134</v>
+        <v>42.20976695005135</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>45.16033743747417</v>
+        <v>45.16033743747415</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>24.74904361578784</v>
+        <v>24.74904361578783</v>
       </c>
     </row>
     <row r="228">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>35.39326435460015</v>
+        <v>35.39326435460013</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>22.03945981064829</v>
+        <v>22.0394598106483</v>
       </c>
     </row>
     <row r="231">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>35.06097141930499</v>
+        <v>35.060971419305</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>22.58738016185566</v>
+        <v>22.58738016185567</v>
       </c>
     </row>
     <row r="234">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>42.06337794203184</v>
+        <v>42.06337794203185</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>32.11234705481341</v>
+        <v>32.1123470548134</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.30797586895399</v>
+        <v>33.307975868954</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.6054208443409</v>
+        <v>41.60542084434088</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.67293459723061</v>
+        <v>25.67293459723059</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>37.72500407234658</v>
+        <v>37.72500407234656</v>
       </c>
     </row>
     <row r="241">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.14497833104964</v>
+        <v>29.14497833104963</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>32.87744193310375</v>
+        <v>32.87744193310376</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>34.31578517053981</v>
+        <v>34.3157851705398</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>21.80095775865635</v>
+        <v>21.80095775865636</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>27.73471524761584</v>
+        <v>27.73471524761583</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.74391660254013</v>
+        <v>28.74391660254014</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>23.11757007277938</v>
+        <v>23.11757007277939</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>34.0310685781549</v>
+        <v>34.03106857815494</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>35.74967285021125</v>
+        <v>35.74967285021123</v>
       </c>
     </row>
     <row r="251">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>39.82423016814248</v>
+        <v>39.82423016814251</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>39.5629102163303</v>
+        <v>39.56291021633029</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.44306966762227</v>
+        <v>28.44306966762228</v>
       </c>
     </row>
     <row r="255">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>33.1587861332173</v>
+        <v>33.15878613321728</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>38.04617210216989</v>
+        <v>38.0461721021699</v>
       </c>
     </row>
     <row r="259">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>23.76930823942867</v>
+        <v>23.76930823942868</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>35.27199375432477</v>
+        <v>35.27199375432474</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>37.14886276259206</v>
+        <v>37.14886276259207</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>25.13652413938559</v>
+        <v>25.1365241393856</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>44.70736126307798</v>
+        <v>44.70736126307797</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>45.58780534532607</v>
+        <v>45.5878053453261</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>47.5062089942065</v>
+        <v>47.50620899420649</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>50.2187802499175</v>
+        <v>50.21878024991746</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>49.70838590091588</v>
+        <v>49.70838590091585</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>36.64904650774722</v>
+        <v>36.64904650774725</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>49.50734959860264</v>
+        <v>49.50734959860269</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>49.06778383883979</v>
+        <v>49.06778383883975</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>30.41895480268368</v>
+        <v>30.4189548026837</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.64104530834138</v>
+        <v>36.64104530834137</v>
       </c>
     </row>
     <row r="274">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.72039075944991</v>
+        <v>22.72039075944993</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.64079597547133</v>
+        <v>33.64079597547131</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.67551856003696</v>
+        <v>36.67551856003699</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>23.92208543345963</v>
+        <v>23.92208543345964</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>43.06102051988824</v>
+        <v>43.06102051988825</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>46.45606833355277</v>
+        <v>46.45606833355276</v>
       </c>
     </row>
     <row r="281">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>47.33136295447247</v>
+        <v>47.33136295447248</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>49.35264411967823</v>
+        <v>49.35264411967825</v>
       </c>
     </row>
     <row r="284">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>47.66723591397478</v>
+        <v>47.66723591397479</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>48.33017493966919</v>
+        <v>48.33017493966918</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.83045813306756</v>
+        <v>28.83045813306757</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.51972643846348</v>
+        <v>36.51972643846347</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>37.65991383739301</v>
+        <v>37.65991383739303</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.68323521971335</v>
+        <v>23.68323521971336</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>35.46168787858823</v>
+        <v>35.46168787858825</v>
       </c>
     </row>
     <row r="292">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>24.25761811673286</v>
+        <v>24.25761811673283</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.63339411256253</v>
+        <v>43.63339411256256</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>46.60513817503382</v>
+        <v>46.60513817503381</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.8778013317144</v>
+        <v>42.87780133171439</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>44.10840018941094</v>
+        <v>44.1084001894109</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>46.75880100462334</v>
+        <v>46.75880100462327</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>32.37784852625399</v>
+        <v>32.37784852625396</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>46.92261188485479</v>
+        <v>46.92261188485482</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>48.39644272663341</v>
+        <v>48.39644272663343</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.97915038575822</v>
+        <v>27.97915038575823</v>
       </c>
     </row>
     <row r="303">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.29308339948609</v>
+        <v>29.2930833994861</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>30.87522086468076</v>
+        <v>30.87522086468077</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>22.79019508061449</v>
+        <v>22.7901950806145</v>
       </c>
     </row>
     <row r="309">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>38.82963767074597</v>
+        <v>38.829637670746</v>
       </c>
     </row>
     <row r="311">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>39.96840389550384</v>
+        <v>39.96840389550383</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>41.33070632421492</v>
+        <v>41.33070632421487</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.3542304908333</v>
+        <v>25.35423049083331</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>35.41584548737303</v>
+        <v>35.41584548737305</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>38.63072954430069</v>
+        <v>38.6307295443007</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>30.85294671203356</v>
+        <v>30.85294671203355</v>
       </c>
     </row>
     <row r="318">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>38.12795043134533</v>
+        <v>38.12795043134534</v>
       </c>
     </row>
     <row r="320">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>45.42056362012461</v>
+        <v>45.42056362012463</v>
       </c>
     </row>
     <row r="325">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>45.15311068205857</v>
+        <v>45.15311068205858</v>
       </c>
     </row>
     <row r="327">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>48.77329678817905</v>
+        <v>48.77329678817907</v>
       </c>
     </row>
     <row r="329">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>47.68337616900395</v>
+        <v>47.68337616900397</v>
       </c>
     </row>
     <row r="331">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.02130447025015</v>
+        <v>28.02130447025016</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>36.55260712020589</v>
+        <v>36.55260712020588</v>
       </c>
     </row>
     <row r="334">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>36.74836720090176</v>
+        <v>36.74836720090177</v>
       </c>
     </row>
     <row r="338">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>46.28494919330686</v>
+        <v>46.28494919330684</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>44.03512948391137</v>
+        <v>44.03512948391141</v>
       </c>
     </row>
     <row r="342">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>48.90113080739785</v>
+        <v>48.90113080739786</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>27.70003121596033</v>
+        <v>27.70003121596034</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>47.42462761646255</v>
+        <v>47.42462761646256</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>47.66927176552042</v>
+        <v>47.66927176552043</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>26.68706277745949</v>
+        <v>26.6870627774595</v>
       </c>
     </row>
     <row r="348">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>37.41986477538442</v>
+        <v>37.4198647753844</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>23.49955655980289</v>
+        <v>23.4995565598029</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.09175277729319</v>
+        <v>35.09175277729318</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>37.4180644087192</v>
+        <v>37.41806440871919</v>
       </c>
     </row>
     <row r="353">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>39.45906968987117</v>
+        <v>39.45906968987119</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>43.90508084480009</v>
+        <v>43.90508084480008</v>
       </c>
     </row>
     <row r="358">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>26.7240396280557</v>
+        <v>26.72403962805569</v>
       </c>
     </row>
     <row r="360">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>48.47499867545756</v>
+        <v>48.4749986754576</v>
       </c>
     </row>
     <row r="362">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.48183694758428</v>
+        <v>28.48183694758429</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>30.95850402853509</v>
+        <v>30.9585040285351</v>
       </c>
     </row>
     <row r="365">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>24.58575115829311</v>
+        <v>24.58575115829312</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.1181504244621</v>
+        <v>26.11815042446211</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>21.49614427704953</v>
+        <v>21.49614427704952</v>
       </c>
     </row>
     <row r="369">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.99152642938999</v>
+        <v>30.99152642938998</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.97733989136</v>
+        <v>29.97733989135999</v>
       </c>
     </row>
     <row r="372">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>35.49500934063049</v>
+        <v>35.4950093406305</v>
       </c>
     </row>
     <row r="374">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.30716018349322</v>
+        <v>28.30716018349324</v>
       </c>
     </row>
     <row r="376">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>32.34501657868544</v>
+        <v>32.34501657868542</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.34518025560902</v>
+        <v>34.34518025560901</v>
       </c>
     </row>
     <row r="380">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>32.03409148296947</v>
+        <v>32.03409148296948</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>34.81511720125233</v>
+        <v>34.81511720125234</v>
       </c>
     </row>
     <row r="383">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>41.0904489486494</v>
+        <v>41.09044894864942</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>40.66739564611532</v>
+        <v>40.6673956461153</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>43.98339190470703</v>
+        <v>43.98339190470705</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>43.89864649315005</v>
+        <v>43.8986464931501</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.41219316232203</v>
+        <v>29.41219316232201</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>41.99656943846668</v>
+        <v>41.99656943846669</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>43.5716282082318</v>
+        <v>43.57162820823177</v>
       </c>
     </row>
     <row r="392">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.65946581447754</v>
+        <v>30.65946581447755</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>33.49798481633653</v>
+        <v>33.49798481633654</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>22.40071846855933</v>
+        <v>22.40071846855932</v>
       </c>
     </row>
     <row r="396">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>23.10810313715826</v>
+        <v>23.10810313715827</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>36.55468134464121</v>
+        <v>36.55468134464123</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>41.74727792554894</v>
+        <v>41.74727792554896</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>38.60870531155865</v>
+        <v>38.60870531155867</v>
       </c>
     </row>
     <row r="402">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>43.76280048999955</v>
+        <v>43.76280048999953</v>
       </c>
     </row>
     <row r="404">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>40.53330346058262</v>
+        <v>40.5333034605826</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>43.39847198140092</v>
+        <v>43.3984719814009</v>
       </c>
     </row>
     <row r="407">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>30.76209970939973</v>
+        <v>30.76209970939972</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>34.02962849890211</v>
+        <v>34.02962849890209</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>23.03990178460904</v>
+        <v>23.03990178460905</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>30.69021380903267</v>
+        <v>30.69021380903268</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>34.44199837402208</v>
+        <v>34.4419983740221</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>23.27818959817619</v>
+        <v>23.2781895981762</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>36.29419848858596</v>
+        <v>36.29419848858597</v>
       </c>
     </row>
     <row r="415">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>35.60908289442173</v>
+        <v>35.6090828944217</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>38.97634829517474</v>
+        <v>38.97634829517472</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>42.09285237340912</v>
+        <v>42.09285237340909</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.43265055998618</v>
+        <v>25.43265055998619</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>39.36433070199512</v>
+        <v>39.36433070199509</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>42.69094740215924</v>
+        <v>42.69094740215922</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>22.62523829898866</v>
+        <v>22.62523829898864</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.71823201489888</v>
+        <v>23.71823201489887</v>
       </c>
     </row>
     <row r="424">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>21.3608576915033</v>
+        <v>21.36085769150331</v>
       </c>
     </row>
     <row r="426">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>21.57024819489193</v>
+        <v>21.57024819489195</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>21.5683656168619</v>
+        <v>21.56836561686191</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.83557397757845</v>
+        <v>26.83557397757844</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.54270919169279</v>
+        <v>22.54270919169275</v>
       </c>
     </row>
     <row r="432">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>34.78339715701427</v>
+        <v>34.78339715701425</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.58387482673622</v>
+        <v>21.58387482673623</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>21.77995270680772</v>
+        <v>21.77995270680771</v>
       </c>
     </row>
     <row r="436">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.43419528052155</v>
+        <v>25.43419528052154</v>
       </c>
     </row>
     <row r="439">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>21.02228938719161</v>
+        <v>21.02228938719162</v>
       </c>
     </row>
     <row r="441">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.80560148304232</v>
+        <v>28.80560148304233</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>21.75239364099235</v>
+        <v>21.75239364099237</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.65780887457048</v>
+        <v>28.65780887457045</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.63357586213787</v>
+        <v>35.63357586213785</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.22999365613794</v>
+        <v>28.22999365613793</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.1158192493169</v>
+        <v>36.11581924931687</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>40.35240010248062</v>
+        <v>40.35240010248058</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>23.00200176849853</v>
+        <v>23.00200176849852</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>31.35731982882255</v>
+        <v>31.35731982882256</v>
       </c>
     </row>
     <row r="451">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.85541041903099</v>
+        <v>27.85541041903098</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>20.36295572981104</v>
+        <v>20.36295572981106</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>23.78502426617534</v>
+        <v>23.78502426617537</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.5215971064067</v>
+        <v>28.52159710640668</v>
       </c>
     </row>
     <row r="458">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.84448041360024</v>
+        <v>26.84448041360022</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>37.27657407239041</v>
+        <v>37.27657407239042</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>26.05547824325993</v>
+        <v>26.0554782432599</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>32.06972837887719</v>
+        <v>32.06972837887713</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>39.18727044337349</v>
+        <v>39.18727044337346</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>20.3629271196925</v>
+        <v>20.36292711969252</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.22439182281208</v>
+        <v>28.22439182281206</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.00614659052243</v>
+        <v>29.00614659052242</v>
       </c>
     </row>
     <row r="467">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>23.92597522494124</v>
+        <v>23.92597522494123</v>
       </c>
     </row>
     <row r="469">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>20.44123186136858</v>
+        <v>20.44123186136859</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>23.48001920790772</v>
+        <v>23.48001920790768</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.49458435145479</v>
+        <v>28.49458435145478</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>20.36292953556478</v>
+        <v>20.3629295355648</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.18178557131499</v>
+        <v>25.18178557131495</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>34.80093188431275</v>
+        <v>34.80093188431277</v>
       </c>
     </row>
     <row r="476">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.32160945545542</v>
+        <v>28.32160945545541</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>35.22314073975667</v>
+        <v>35.22314073975664</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>20.36289868626433</v>
+        <v>20.36289868626434</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>26.38841850326603</v>
+        <v>26.388418503266</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.54227871952169</v>
+        <v>29.54227871952168</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>24.27391095950574</v>
+        <v>24.27391095950575</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.65881372536282</v>
+        <v>29.65881372536283</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.75846540297413</v>
+        <v>31.75846540297412</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>21.30633356654687</v>
+        <v>21.30633356654688</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>27.0396507943511</v>
+        <v>27.03965079435109</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.20169336644585</v>
+        <v>28.20169336644587</v>
       </c>
     </row>
     <row r="488">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>33.0056779458343</v>
+        <v>33.00567794583431</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>35.50572641512869</v>
+        <v>35.50572641512871</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>31.809224052876</v>
+        <v>31.80922405287599</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>36.47105967076133</v>
+        <v>36.47105967076132</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>37.3570889038724</v>
+        <v>37.35708890387239</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.85650291543595</v>
+        <v>26.85650291543596</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>31.72065628267994</v>
+        <v>31.72065628267998</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>35.1369447148008</v>
+        <v>35.13694471480081</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.66096085817702</v>
+        <v>28.66096085817703</v>
       </c>
     </row>
     <row r="498">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>23.7472504331748</v>
+        <v>23.74725043317481</v>
       </c>
     </row>
     <row r="501">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>42.40886297382045</v>
+        <v>42.40886297382047</v>
       </c>
     </row>
     <row r="505">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>43.16507494838089</v>
+        <v>43.16507494838092</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>44.93244735400804</v>
+        <v>44.93244735400805</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>44.94821835753027</v>
+        <v>44.94821835753022</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>32.8426326635509</v>
+        <v>32.84263266355089</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>44.59073769657822</v>
+        <v>44.59073769657824</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>45.1989569501018</v>
+        <v>45.19895695010185</v>
       </c>
     </row>
     <row r="512">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>23.32587533591407</v>
+        <v>23.32587533591406</v>
       </c>
     </row>
     <row r="516">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>24.08818663489188</v>
+        <v>24.08818663489187</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>41.2095195922266</v>
+        <v>41.20951959222659</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>43.97522803451456</v>
+        <v>43.97522803451457</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>42.18822428369916</v>
+        <v>42.18822428369914</v>
       </c>
     </row>
     <row r="522">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>45.11948520193599</v>
+        <v>45.11948520193601</v>
       </c>
     </row>
     <row r="524">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>43.84467466526654</v>
+        <v>43.84467466526653</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>45.01995133240249</v>
+        <v>45.01995133240245</v>
       </c>
     </row>
     <row r="527">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>34.30231520115904</v>
+        <v>34.30231520115906</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>23.0995790060666</v>
+        <v>23.09957900606661</v>
       </c>
     </row>
     <row r="531">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.12779476123664</v>
+        <v>35.12779476123663</v>
       </c>
     </row>
     <row r="533">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.5732386111175</v>
+        <v>39.57323861111746</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>43.41662010794702</v>
+        <v>43.41662010794698</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>37.68325239544174</v>
+        <v>37.68325239544172</v>
       </c>
     </row>
     <row r="537">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>42.63224666990817</v>
+        <v>42.63224666990818</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.97999413414214</v>
+        <v>26.97999413414213</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>42.07849598303771</v>
+        <v>42.0784959830377</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>44.30869984983424</v>
+        <v>44.30869984983423</v>
       </c>
     </row>
     <row r="542">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.46838967123209</v>
+        <v>26.46838967123208</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.69693223040583</v>
+        <v>28.69693223040584</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>20.47587100904684</v>
+        <v>20.47587100904685</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>21.78419464881862</v>
+        <v>21.78419464881861</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.67379813156979</v>
+        <v>23.67379813156981</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>20.82854176591544</v>
+        <v>20.82854176591542</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.56351924040352</v>
+        <v>24.56351924040353</v>
       </c>
     </row>
     <row r="550">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.8188239293071</v>
+        <v>28.81882392930713</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.79290370625245</v>
+        <v>29.79290370625246</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>21.72553599864809</v>
+        <v>21.7255359986481</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>24.52412204481453</v>
+        <v>24.52412204481454</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.34136743405188</v>
+        <v>26.3413674340519</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>26.02152326993694</v>
+        <v>26.02152326993695</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>31.08688993031377</v>
+        <v>31.08688993031378</v>
       </c>
     </row>
     <row r="559">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>23.78087456642518</v>
+        <v>23.78087456642517</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>30.04061776273402</v>
+        <v>30.04061776273403</v>
       </c>
     </row>
     <row r="562">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>35.75368412260581</v>
+        <v>35.75368412260582</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>39.89973833500484</v>
+        <v>39.89973833500486</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>35.31145011695721</v>
+        <v>35.3114501169572</v>
       </c>
     </row>
     <row r="567">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>42.03004976261412</v>
+        <v>42.03004976261415</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>27.5588774796578</v>
+        <v>27.55887747965779</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>38.3055786025713</v>
+        <v>38.30557860257132</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>39.90256861022375</v>
+        <v>39.90256861022374</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>23.22348474952564</v>
+        <v>23.22348474952563</v>
       </c>
     </row>
     <row r="573">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>21.76460278489509</v>
+        <v>21.76460278489511</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>26.55353883753144</v>
+        <v>26.55353883753145</v>
       </c>
     </row>
     <row r="577">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>22.8781590638433</v>
+        <v>22.87815906384329</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.38311074324023</v>
+        <v>30.38311074324024</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>39.62469468003876</v>
+        <v>39.62469468003875</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>30.76134792334361</v>
+        <v>30.7613479233436</v>
       </c>
     </row>
     <row r="582">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>40.69415530550719</v>
+        <v>40.69415530550718</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.36188282338726</v>
+        <v>24.36188282338725</v>
       </c>
     </row>
     <row r="585">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>38.34593952207606</v>
+        <v>38.34593952207607</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.61436453119444</v>
+        <v>22.61436453119443</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.6241752399053</v>
+        <v>26.62417523990532</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.44902436869818</v>
+        <v>31.44902436869819</v>
       </c>
     </row>
     <row r="590">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>24.96759705674483</v>
+        <v>24.96759705674482</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>30.86626680376932</v>
+        <v>30.86626680376931</v>
       </c>
     </row>
     <row r="593">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>27.93866600622253</v>
+        <v>27.93866600622254</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>36.96076952340636</v>
+        <v>36.96076952340635</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>26.79068708448761</v>
+        <v>26.7906870844876</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.31881189231214</v>
+        <v>29.31881189231212</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.40497153484662</v>
+        <v>35.40497153484664</v>
       </c>
     </row>
     <row r="599">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>30.36154017213187</v>
+        <v>30.36154017213186</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>35.79909058297346</v>
+        <v>35.79909058297343</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.69143038320262</v>
+        <v>26.69143038320263</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.4748730506939</v>
+        <v>30.47487305069391</v>
       </c>
     </row>
     <row r="604">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>21.3079294188488</v>
+        <v>21.30792941884882</v>
       </c>
     </row>
     <row r="606">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>21.85524399253688</v>
+        <v>21.8552439925369</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.48648786335978</v>
+        <v>31.48648786335977</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.81644354821253</v>
+        <v>34.81644354821251</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.52068564781138</v>
+        <v>31.52068564781136</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>36.54651285919746</v>
+        <v>36.54651285919747</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>36.90589253915992</v>
+        <v>36.90589253915989</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.08267735124169</v>
+        <v>24.0826773512417</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.1650576471512</v>
+        <v>30.16505764715121</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>33.02717825604461</v>
+        <v>33.02717825604464</v>
       </c>
     </row>
     <row r="617">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>35.5829492429416</v>
+        <v>35.58294924294156</v>
       </c>
     </row>
     <row r="620">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.43880930715825</v>
+        <v>35.43880930715827</v>
       </c>
     </row>
     <row r="623">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>42.11623946783315</v>
+        <v>42.11623946783313</v>
       </c>
     </row>
     <row r="625">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>44.7999443540718</v>
+        <v>44.79994435407179</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>45.27426305614615</v>
+        <v>45.27426305614614</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.00637825275106</v>
+        <v>29.00637825275108</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>43.12737736807183</v>
+        <v>43.12737736807181</v>
       </c>
     </row>
     <row r="631">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>27.30902687112193</v>
+        <v>27.30902687112194</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.73159731602674</v>
+        <v>33.73159731602676</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>34.90350937784459</v>
+        <v>34.90350937784457</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.25268197792466</v>
+        <v>23.25268197792467</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.38212359890002</v>
+        <v>33.38212359890003</v>
       </c>
     </row>
     <row r="637">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>41.64106107448011</v>
+        <v>41.64106107448008</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>43.93995547918023</v>
+        <v>43.9399554791802</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>41.66871057212199</v>
+        <v>41.66871057212201</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>43.63113612924118</v>
+        <v>43.63113612924116</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>45.80727380966087</v>
+        <v>45.80727380966084</v>
       </c>
     </row>
     <row r="644">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>43.11621766659781</v>
+        <v>43.11621766659782</v>
       </c>
     </row>
     <row r="646">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.33345467740173</v>
+        <v>26.33345467740174</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.411429757992</v>
+        <v>33.41142975799203</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.42844411247655</v>
+        <v>35.42844411247658</v>
       </c>
     </row>
     <row r="650">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>35.54435264008823</v>
+        <v>35.54435264008822</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>23.75547076079036</v>
+        <v>23.75547076079037</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.25800211516611</v>
+        <v>40.25800211516609</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.3740772894963</v>
+        <v>43.37407728949631</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>39.08081548322543</v>
+        <v>39.08081548322541</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.01449199720327</v>
+        <v>42.01449199720326</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>43.35966854185151</v>
+        <v>43.35966854185143</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>26.48898286962042</v>
+        <v>26.48898286962043</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.03970099773134</v>
+        <v>43.03970099773136</v>
       </c>
     </row>
     <row r="661">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.29121135452808</v>
+        <v>28.29121135452809</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>20.36303302687289</v>
+        <v>20.36303302687292</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>21.40515598626332</v>
+        <v>21.40515598626334</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>23.20969821585033</v>
+        <v>23.20969821585034</v>
       </c>
     </row>
     <row r="668">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>24.49747657378765</v>
+        <v>24.49747657378767</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>27.60800578637693</v>
+        <v>27.60800578637695</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>24.75100050208638</v>
+        <v>24.7510005020864</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.00452193468849</v>
+        <v>28.00452193468853</v>
       </c>
     </row>
     <row r="673">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>23.47791930339043</v>
+        <v>23.47791930339042</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>26.07534539569373</v>
+        <v>26.07534539569374</v>
       </c>
     </row>
     <row r="677">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.69325713454458</v>
+        <v>28.69325713454459</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>30.48976457350961</v>
+        <v>30.4897645735096</v>
       </c>
     </row>
     <row r="680">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>26.96952269357634</v>
+        <v>26.96952269357636</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.68024966944248</v>
+        <v>29.68024966944246</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>22.56379065966861</v>
+        <v>22.5637906596686</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.77056662251757</v>
+        <v>31.77056662251763</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>35.71308711712202</v>
+        <v>35.71308711712203</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.98370586035385</v>
+        <v>31.98370586035386</v>
       </c>
     </row>
     <row r="687">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>38.01891341869032</v>
+        <v>38.01891341869036</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>27.28485541816167</v>
+        <v>27.28485541816166</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>33.74116660151999</v>
+        <v>33.74116660152002</v>
       </c>
     </row>
     <row r="691">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>27.11574295372326</v>
+        <v>27.11574295372328</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.60348004915778</v>
+        <v>29.60348004915779</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>20.86795982138147</v>
+        <v>20.86795982138148</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.54660254450989</v>
+        <v>25.54660254450991</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.14886956586416</v>
+        <v>29.14886956586418</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>21.68687573340524</v>
+        <v>21.68687573340523</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.79294505029944</v>
+        <v>29.79294505029942</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>35.90231769005111</v>
+        <v>35.90231769005112</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>30.37547362801186</v>
+        <v>30.37547362801185</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>32.95636889473661</v>
+        <v>32.95636889473662</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>37.92801547694523</v>
+        <v>37.92801547694526</v>
       </c>
     </row>
     <row r="704">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.1101574733274</v>
+        <v>32.11015747332739</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>34.24282520022777</v>
+        <v>34.24282520022776</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>23.08816662939655</v>
+        <v>23.08816662939656</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.98980620634734</v>
+        <v>26.98980620634735</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.63799804176844</v>
+        <v>29.63799804176845</v>
       </c>
     </row>
     <row r="710">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>21.26695986130557</v>
+        <v>21.26695986130555</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.70186082398464</v>
+        <v>28.70186082398465</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>34.45243436795806</v>
+        <v>34.45243436795808</v>
       </c>
     </row>
     <row r="716">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>30.17780419789573</v>
+        <v>30.17780419789569</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>33.67201915821602</v>
+        <v>33.67201915821601</v>
       </c>
     </row>
     <row r="719">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>30.20175752695726</v>
+        <v>30.20175752695725</v>
       </c>
     </row>
     <row r="721">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>24.44410354222538</v>
+        <v>24.44410354222537</v>
       </c>
     </row>
     <row r="723">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.91882988465905</v>
+        <v>25.91882988465907</v>
       </c>
     </row>
     <row r="725">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>21.09428922663081</v>
+        <v>21.0942892266308</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>21.94763336072353</v>
+        <v>21.94763336072352</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>22.23077999900376</v>
+        <v>22.23077999900377</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.29006884590373</v>
+        <v>23.29006884590374</v>
       </c>
     </row>
     <row r="730">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>23.06722331010331</v>
+        <v>23.0672233101033</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>24.62668000138174</v>
+        <v>24.62668000138175</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>24.7788086694134</v>
+        <v>24.77880866941339</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>22.69642306777048</v>
+        <v>22.69642306777049</v>
       </c>
     </row>
     <row r="735">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>22.86175253375165</v>
+        <v>22.86175253375166</v>
       </c>
     </row>
     <row r="737">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.67646087474002</v>
+        <v>26.67646087474004</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>21.41100881416733</v>
+        <v>21.41100881416731</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.51348102579386</v>
+        <v>24.51348102579385</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.06524878849048</v>
+        <v>26.06524878849047</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>22.56237412393445</v>
+        <v>22.56237412393443</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.58131445553947</v>
+        <v>27.58131445553948</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.60136029670874</v>
+        <v>28.60136029670875</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.77224475089593</v>
+        <v>28.77224475089594</v>
       </c>
     </row>
     <row r="747">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.83429595970221</v>
+        <v>29.83429595970222</v>
       </c>
     </row>
     <row r="749">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>27.84891969794739</v>
+        <v>27.84891969794738</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.61198243296214</v>
+        <v>28.61198243296213</v>
       </c>
     </row>
     <row r="752">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>23.14659645542876</v>
+        <v>23.14659645542874</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.52006784720598</v>
+        <v>25.52006784720596</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>22.34330663650385</v>
+        <v>22.34330663650384</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>25.93613555795565</v>
+        <v>25.93613555795567</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.94250214504963</v>
+        <v>28.94250214504964</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>27.4678919781701</v>
+        <v>27.46789197817009</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>27.77838377768782</v>
+        <v>27.77838377768783</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.77918824956347</v>
+        <v>29.77918824956344</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>24.25006827772101</v>
+        <v>24.25006827772102</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>26.86253683805089</v>
+        <v>26.8625368380509</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.2784125923348</v>
+        <v>28.27841259233479</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>23.03888154918867</v>
+        <v>23.03888154918866</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.29899717989854</v>
+        <v>25.29899717989853</v>
       </c>
     </row>
     <row r="769">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>21.06363701327434</v>
+        <v>21.06363701327435</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>23.4140133736944</v>
+        <v>23.41401337369441</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.89678600218301</v>
+        <v>25.89678600218303</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>21.66446765422464</v>
+        <v>21.66446765422465</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.7507917931191</v>
+        <v>25.75079179311911</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.33422287408742</v>
+        <v>28.33422287408744</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>25.55026386182178</v>
+        <v>25.55026386182177</v>
       </c>
     </row>
     <row r="777">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>27.06577915015379</v>
+        <v>27.06577915015377</v>
       </c>
     </row>
     <row r="779">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.13605821786106</v>
+        <v>27.13605821786102</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.40700619954838</v>
+        <v>28.40700619954837</v>
       </c>
     </row>
     <row r="782">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>30.62282779433546</v>
+        <v>30.62282779433547</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>20.36292947258826</v>
+        <v>20.36292947258828</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>22.08687505156254</v>
+        <v>22.08687505156252</v>
       </c>
     </row>
     <row r="787">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>21.49095623087914</v>
+        <v>21.49095623087912</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>25.57697003108996</v>
+        <v>25.57697003108994</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>26.49776900073325</v>
+        <v>26.49776900073326</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.64725253225679</v>
+        <v>25.6472525322568</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.23516544577656</v>
+        <v>29.23516544577654</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.20755628890267</v>
+        <v>29.20755628890266</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>23.09738869804078</v>
+        <v>23.09738869804079</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>24.01251869943643</v>
+        <v>24.01251869943646</v>
       </c>
     </row>
     <row r="796">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.42895672669498</v>
+        <v>28.42895672669497</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>32.16399335739347</v>
+        <v>32.16399335739346</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>33.12108411229593</v>
+        <v>33.12108411229592</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>22.64251157450346</v>
+        <v>22.64251157450347</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.8334289492277</v>
+        <v>29.83342894922772</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>30.65875984355575</v>
+        <v>30.65875984355574</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>24.53326476617388</v>
+        <v>24.53326476617386</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>36.90919805491923</v>
+        <v>36.90919805491924</v>
       </c>
     </row>
     <row r="805">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>39.76646195228998</v>
+        <v>39.76646195228999</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>41.66914884239142</v>
+        <v>41.66914884239139</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>41.33563543030391</v>
+        <v>41.33563543030389</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>32.08244220336118</v>
+        <v>32.08244220336117</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>41.52081323345092</v>
+        <v>41.52081323345089</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>41.47439613484692</v>
+        <v>41.47439613484696</v>
       </c>
     </row>
     <row r="812">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>32.96366574352715</v>
+        <v>32.96366574352713</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.25797228860854</v>
+        <v>22.25797228860853</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.72470313137748</v>
+        <v>28.72470313137746</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.17062321891622</v>
+        <v>31.17062321891619</v>
       </c>
     </row>
     <row r="818">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>35.61142301638395</v>
+        <v>35.61142301638392</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>39.01552514689316</v>
+        <v>39.01552514689315</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>37.93299757516272</v>
+        <v>37.93299757516273</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>39.4612489367355</v>
+        <v>39.46124893673547</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>42.09534994555539</v>
+        <v>42.09534994555541</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.04858039015691</v>
+        <v>30.04858039015692</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>40.15509296236213</v>
+        <v>40.15509296236214</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>41.77052505997916</v>
+        <v>41.77052505997912</v>
       </c>
     </row>
     <row r="827">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>22.11594321121709</v>
+        <v>22.11594321121708</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.08990071814729</v>
+        <v>28.08990071814727</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>31.78208457259015</v>
+        <v>31.78208457259012</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>22.85644744458147</v>
+        <v>22.85644744458148</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>33.42067678951906</v>
+        <v>33.42067678951905</v>
       </c>
     </row>
     <row r="835">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.51578813536434</v>
+        <v>32.51578813536435</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>33.66819138882781</v>
+        <v>33.66819138882778</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>37.78751204930943</v>
+        <v>37.78751204930944</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>25.25064995279513</v>
+        <v>25.25064995279515</v>
       </c>
     </row>
     <row r="840">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>39.49641514676225</v>
+        <v>39.49641514676222</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.59830599662259</v>
+        <v>25.5983059966226</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>30.24741503041543</v>
+        <v>30.24741503041544</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>32.38974693985349</v>
+        <v>32.3897469398535</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>21.76015736766044</v>
+        <v>21.76015736766046</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>25.82779017451562</v>
+        <v>25.82779017451563</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>27.69899586262377</v>
+        <v>27.69899586262378</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>22.01801879933204</v>
+        <v>22.01801879933205</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>30.10203882800975</v>
+        <v>30.10203882800974</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>33.44302606600398</v>
+        <v>33.44302606600396</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>30.37243592998967</v>
+        <v>30.37243592998966</v>
       </c>
     </row>
     <row r="852">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.3015710240442</v>
+        <v>29.30157102404421</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>32.99421703258022</v>
+        <v>32.99421703258021</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>27.33931934132319</v>
+        <v>27.3393193413232</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>34.01547605107772</v>
+        <v>34.0154760510777</v>
       </c>
     </row>
     <row r="859">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>32.9968155330918</v>
+        <v>32.99681553309181</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>34.89483448960051</v>
+        <v>34.89483448960053</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>23.81790720808231</v>
+        <v>23.8179072080823</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>39.63320128574927</v>
+        <v>39.63320128574928</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.1197026487372</v>
+        <v>42.11970264873719</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>41.9278214758877</v>
+        <v>41.92782147588773</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.10282264463722</v>
+        <v>44.1028226446372</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>44.64447313766536</v>
+        <v>44.64447313766535</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>27.14983512228066</v>
+        <v>27.14983512228065</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>41.97909336667814</v>
+        <v>41.97909336667813</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>43.49857475467439</v>
+        <v>43.49857475467437</v>
       </c>
     </row>
     <row r="872">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.74127157405985</v>
+        <v>31.74127157405986</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.7303114485526</v>
+        <v>33.73031144855258</v>
       </c>
     </row>
     <row r="875">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>31.32420025717098</v>
+        <v>31.324200257171</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>34.45569022705549</v>
+        <v>34.45569022705551</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>22.74119856352609</v>
+        <v>22.74119856352608</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>37.0887926362894</v>
+        <v>37.08879263628942</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>42.31773985159189</v>
+        <v>42.31773985159191</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>40.04738919109462</v>
+        <v>40.0473891910946</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.61911622620732</v>
+        <v>41.6191162262073</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>44.98036037061129</v>
+        <v>44.98036037061128</v>
       </c>
     </row>
     <row r="884">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>40.43395021381311</v>
+        <v>40.43395021381316</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>43.00092252974353</v>
+        <v>43.00092252974354</v>
       </c>
     </row>
     <row r="887">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>31.05477859232978</v>
+        <v>31.05477859232979</v>
       </c>
     </row>
     <row r="889">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>23.01323181292335</v>
+        <v>23.01323181292336</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>30.23000362663452</v>
+        <v>30.23000362663453</v>
       </c>
     </row>
     <row r="892">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>22.99381494523889</v>
+        <v>22.9938149452389</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.81985343962011</v>
+        <v>34.8198534396201</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>41.50813548461112</v>
+        <v>41.50813548461115</v>
       </c>
     </row>
     <row r="896">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>38.35049854803112</v>
+        <v>38.35049854803113</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>41.94508785436035</v>
+        <v>41.94508785436034</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>24.09911716132235</v>
+        <v>24.09911716132236</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>38.60429417724333</v>
+        <v>38.60429417724332</v>
       </c>
     </row>
     <row r="901">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>26.59623063940234</v>
+        <v>26.59623063940233</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.47188085019841</v>
+        <v>30.47188085019842</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>32.77543878227725</v>
+        <v>32.77543878227724</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>21.98373575180725</v>
+        <v>21.98373575180726</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>26.36525400970259</v>
+        <v>26.3652540097026</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>26.72323514043041</v>
+        <v>26.72323514043044</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>22.34144413391863</v>
+        <v>22.34144413391864</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>30.3808428641565</v>
+        <v>30.38084286415653</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>32.96242385143177</v>
+        <v>32.96242385143175</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>30.26868398928347</v>
+        <v>30.2686839892835</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>35.9427374786567</v>
+        <v>35.94273747865667</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>37.31905369381256</v>
+        <v>37.31905369381258</v>
       </c>
     </row>
     <row r="914">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>27.95731986039609</v>
+        <v>27.9573198603961</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>31.92916431726297</v>
+        <v>31.92916431726299</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>30.19963697260697</v>
+        <v>30.19963697260698</v>
       </c>
     </row>
     <row r="918">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>23.63723000579064</v>
+        <v>23.63723000579068</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>34.09466986120112</v>
+        <v>34.09466986120113</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>34.88439049027053</v>
+        <v>34.8843904902705</v>
       </c>
     </row>
     <row r="923">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>41.76476798968663</v>
+        <v>41.76476798968665</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>42.33803083132096</v>
+        <v>42.33803083132101</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>44.26917881589767</v>
+        <v>44.26917881589766</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>45.94133616857744</v>
+        <v>45.94133616857746</v>
       </c>
     </row>
     <row r="928">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>44.63868643597406</v>
+        <v>44.63868643597404</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>44.94436739172755</v>
+        <v>44.94436739172754</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>26.96669073436274</v>
+        <v>26.96669073436273</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>33.46864815017478</v>
+        <v>33.46864815017477</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>34.12200137377664</v>
+        <v>34.12200137377667</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>22.27910033465726</v>
+        <v>22.27910033465728</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>32.43728389497667</v>
+        <v>32.4372838949767</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>34.56597778016699</v>
+        <v>34.56597778016702</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>22.55709800586093</v>
+        <v>22.55709800586094</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>39.53045342803119</v>
+        <v>39.53045342803118</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>43.09061339961598</v>
+        <v>43.09061339961602</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>41.52514085647233</v>
+        <v>41.52514085647234</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>42.42247733495204</v>
+        <v>42.42247733495203</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>45.18890258267644</v>
+        <v>45.18890258267648</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>25.68672014827727</v>
+        <v>25.68672014827726</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>42.22738684148239</v>
+        <v>42.22738684148243</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>43.85224093075793</v>
+        <v>43.85224093075794</v>
       </c>
     </row>
     <row r="947">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.62708356120962</v>
+        <v>32.62708356120965</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>35.38726133956787</v>
+        <v>35.38726133956786</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>23.06059095435687</v>
+        <v>23.06059095435689</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>32.2770148023641</v>
+        <v>32.27701480236411</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>35.81792399607704</v>
+        <v>35.81792399607705</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>22.43203377431465</v>
+        <v>22.43203377431464</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>37.68945695611018</v>
+        <v>37.68945695611015</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>43.50853416954551</v>
+        <v>43.50853416954557</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.91552605814169</v>
+        <v>36.91552605814164</v>
       </c>
     </row>
     <row r="957">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>43.57782813793195</v>
+        <v>43.57782813793193</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>25.06338381408981</v>
+        <v>25.06338381408982</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>40.33298576921804</v>
+        <v>40.33298576921806</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>44.08938701122185</v>
+        <v>44.08938701122193</v>
       </c>
     </row>
     <row r="962">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.95675211456896</v>
+        <v>30.95675211456897</v>
       </c>
     </row>
     <row r="964">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>32.22411492356267</v>
+        <v>32.22411492356269</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>34.47777671480669</v>
+        <v>34.47777671480667</v>
       </c>
     </row>
     <row r="967">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>24.36034387625238</v>
+        <v>24.36034387625239</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>31.47754609027616</v>
+        <v>31.47754609027617</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>33.69628237674011</v>
+        <v>33.69628237674009</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>30.94695345052513</v>
+        <v>30.94695345052514</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>36.67915648884696</v>
+        <v>36.67915648884698</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>37.62806706777281</v>
+        <v>37.62806706777285</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>26.25925219997011</v>
+        <v>26.25925219997012</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.74524871300028</v>
+        <v>29.74524871300027</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>31.97876099633461</v>
+        <v>31.97876099633464</v>
       </c>
     </row>
     <row r="977">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.61273158994422</v>
+        <v>34.61273158994423</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>35.01960104608119</v>
+        <v>35.01960104608117</v>
       </c>
     </row>
     <row r="980">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>39.31759882153619</v>
+        <v>39.31759882153617</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>40.53754619222207</v>
+        <v>40.53754619222204</v>
       </c>
     </row>
     <row r="983">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>40.41721718412356</v>
+        <v>40.41721718412357</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>42.26033918792766</v>
+        <v>42.26033918792765</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>43.86497770424815</v>
+        <v>43.86497770424812</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>45.28793733351564</v>
+        <v>45.28793733351565</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>45.31527774520212</v>
+        <v>45.31527774520216</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>32.77093838866979</v>
+        <v>32.77093838866982</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>44.19121937688606</v>
+        <v>44.19121937688607</v>
       </c>
     </row>
     <row r="991">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>29.48972760028612</v>
+        <v>29.48972760028611</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>34.71157726630773</v>
+        <v>34.71157726630772</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>35.19096224709225</v>
+        <v>35.19096224709227</v>
       </c>
     </row>
     <row r="995">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>39.12035659156867</v>
+        <v>39.12035659156865</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>41.2059821264229</v>
+        <v>41.20598212642287</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>25.10464964200911</v>
+        <v>25.10464964200909</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>40.56090962250225</v>
+        <v>40.56090962250227</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>44.55441708005421</v>
+        <v>44.55441708005423</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>42.53978248283013</v>
+        <v>42.53978248283011</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>42.96789789763181</v>
+        <v>42.96789789763186</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>45.5172761397961</v>
+        <v>45.51727613979607</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>30.73314735878665</v>
+        <v>30.73314735878667</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>43.12720605640398</v>
+        <v>43.12720605640394</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>45.20785316556744</v>
+        <v>45.20785316556745</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>27.52646571338359</v>
+        <v>27.52646571338358</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>34.12718207013292</v>
+        <v>34.12718207013295</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>35.7967690767077</v>
+        <v>35.79676907670772</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>33.26004362228519</v>
+        <v>33.26004362228514</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>39.67249616163308</v>
+        <v>39.6724961616331</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>42.22796848072427</v>
+        <v>42.22796848072426</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>24.15021192937315</v>
+        <v>24.15021192937316</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>40.16333584773784</v>
+        <v>40.16333584773786</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>44.06692217468196</v>
+        <v>44.06692217468198</v>
       </c>
     </row>
     <row r="1016">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>39.76180772232529</v>
+        <v>39.7618077223253</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>44.10608056150119</v>
+        <v>44.10608056150121</v>
       </c>
     </row>
     <row r="1019">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>41.89088387041384</v>
+        <v>41.89088387041379</v>
       </c>
     </row>
     <row r="1021">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>28.90356410974568</v>
+        <v>28.90356410974569</v>
       </c>
     </row>
     <row r="1024">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>20.56727819928646</v>
+        <v>20.56727819928647</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>24.64293112108867</v>
+        <v>24.64293112108865</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>25.37532769645356</v>
+        <v>25.37532769645357</v>
       </c>
     </row>
     <row r="1028">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>28.65207726005611</v>
+        <v>28.65207726005614</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>31.41545371240008</v>
+        <v>31.41545371240011</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>29.24967049220735</v>
+        <v>29.24967049220734</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>34.3368043385963</v>
+        <v>34.33680433859629</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>34.81625542565302</v>
+        <v>34.816255425653</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>21.54740645046582</v>
+        <v>21.54740645046583</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>26.63789154872122</v>
+        <v>26.63789154872121</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>31.05393337160972</v>
+        <v>31.05393337160974</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>26.97129267083906</v>
+        <v>26.97129267083907</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>33.65882647030842</v>
+        <v>33.65882647030843</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>34.13872424191622</v>
+        <v>34.13872424191624</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>22.86201465487905</v>
+        <v>22.86201465487906</v>
       </c>
     </row>
     <row r="1041">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>33.99934006286676</v>
+        <v>33.99934006286679</v>
       </c>
     </row>
     <row r="1043">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>40.06128158544225</v>
+        <v>40.06128158544228</v>
       </c>
     </row>
     <row r="1045">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>42.17560113690783</v>
+        <v>42.17560113690782</v>
       </c>
     </row>
     <row r="1047">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>42.13050262222412</v>
+        <v>42.13050262222411</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>43.38292322716566</v>
+        <v>43.3829232271657</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>24.85140627765535</v>
+        <v>24.85140627765536</v>
       </c>
     </row>
     <row r="1053">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>22.32495517952285</v>
+        <v>22.32495517952287</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>32.22255596187553</v>
+        <v>32.22255596187554</v>
       </c>
     </row>
     <row r="1057">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>22.62503370894944</v>
+        <v>22.62503370894943</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>37.96466611020701</v>
+        <v>37.964666110207</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>42.54267402881297</v>
+        <v>42.54267402881298</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>40.30804314536426</v>
+        <v>40.30804314536425</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>42.6051668251469</v>
+        <v>42.60516682514694</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>44.95036928688855</v>
+        <v>44.9503692868886</v>
       </c>
     </row>
     <row r="1064">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>40.55385576785211</v>
+        <v>40.55385576785214</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>43.31713918087286</v>
+        <v>43.31713918087287</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>23.1897948056548</v>
+        <v>23.18979480565479</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>29.86346533122235</v>
+        <v>29.86346533122236</v>
       </c>
     </row>
     <row r="1069">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>28.96379236047946</v>
+        <v>28.96379236047947</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>32.8177221592657</v>
+        <v>32.81772215926571</v>
       </c>
     </row>
     <row r="1073">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>33.45224221172632</v>
+        <v>33.45224221172634</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>40.06609077845503</v>
+        <v>40.06609077845504</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>33.06012937692903</v>
+        <v>33.06012937692905</v>
       </c>
     </row>
     <row r="1077">
@@ -27546,7 +27546,7 @@
         </is>
       </c>
       <c r="E1077" t="n">
-        <v>36.43919420691434</v>
+        <v>36.43919420691432</v>
       </c>
     </row>
     <row r="1078">
@@ -27571,7 +27571,7 @@
         </is>
       </c>
       <c r="E1078" t="n">
-        <v>40.2047363102205</v>
+        <v>40.20473631022048</v>
       </c>
     </row>
     <row r="1079">
@@ -27596,7 +27596,7 @@
         </is>
       </c>
       <c r="E1079" t="n">
-        <v>21.1674638144824</v>
+        <v>21.16746381448242</v>
       </c>
     </row>
     <row r="1080">
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="E1080" t="n">
-        <v>33.95916107313227</v>
+        <v>33.95916107313225</v>
       </c>
     </row>
     <row r="1081">
@@ -27646,7 +27646,7 @@
         </is>
       </c>
       <c r="E1081" t="n">
-        <v>41.31006941821393</v>
+        <v>41.31006941821395</v>
       </c>
     </row>
     <row r="1082">
@@ -27721,7 +27721,7 @@
         </is>
       </c>
       <c r="E1084" t="n">
-        <v>29.69841505452194</v>
+        <v>29.69841505452192</v>
       </c>
     </row>
     <row r="1085">
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="E1085" t="n">
-        <v>20.85367704843982</v>
+        <v>20.85367704843983</v>
       </c>
     </row>
     <row r="1086">
@@ -27796,7 +27796,7 @@
         </is>
       </c>
       <c r="E1087" t="n">
-        <v>24.70563137677514</v>
+        <v>24.70563137677512</v>
       </c>
     </row>
     <row r="1088">
@@ -27846,7 +27846,7 @@
         </is>
       </c>
       <c r="E1089" t="n">
-        <v>26.19798168572608</v>
+        <v>26.19798168572607</v>
       </c>
     </row>
     <row r="1090">
@@ -27921,7 +27921,7 @@
         </is>
       </c>
       <c r="E1092" t="n">
-        <v>29.93804888109474</v>
+        <v>29.93804888109476</v>
       </c>
     </row>
     <row r="1093">
@@ -27971,7 +27971,7 @@
         </is>
       </c>
       <c r="E1094" t="n">
-        <v>21.29545567260966</v>
+        <v>21.29545567260967</v>
       </c>
     </row>
     <row r="1095">
@@ -27996,7 +27996,7 @@
         </is>
       </c>
       <c r="E1095" t="n">
-        <v>24.45964098752351</v>
+        <v>24.45964098752349</v>
       </c>
     </row>
     <row r="1096">
@@ -28021,7 +28021,7 @@
         </is>
       </c>
       <c r="E1096" t="n">
-        <v>27.74944617210032</v>
+        <v>27.74944617210031</v>
       </c>
     </row>
     <row r="1097">
@@ -28046,7 +28046,7 @@
         </is>
       </c>
       <c r="E1097" t="n">
-        <v>27.36212405666014</v>
+        <v>27.36212405666013</v>
       </c>
     </row>
     <row r="1098">
@@ -28096,7 +28096,7 @@
         </is>
       </c>
       <c r="E1099" t="n">
-        <v>34.24915831441726</v>
+        <v>34.24915831441727</v>
       </c>
     </row>
     <row r="1100">
@@ -28121,7 +28121,7 @@
         </is>
       </c>
       <c r="E1100" t="n">
-        <v>23.78341308351044</v>
+        <v>23.78341308351045</v>
       </c>
     </row>
     <row r="1101">
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="E1101" t="n">
-        <v>32.37023681029922</v>
+        <v>32.3702368102992</v>
       </c>
     </row>
     <row r="1102">
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="E1102" t="n">
-        <v>34.70717394790079</v>
+        <v>34.70717394790081</v>
       </c>
     </row>
     <row r="1103">
@@ -28221,7 +28221,7 @@
         </is>
       </c>
       <c r="E1104" t="n">
-        <v>38.71237967239037</v>
+        <v>38.71237967239035</v>
       </c>
     </row>
     <row r="1105">
@@ -28246,7 +28246,7 @@
         </is>
       </c>
       <c r="E1105" t="n">
-        <v>40.97509722172927</v>
+        <v>40.97509722172929</v>
       </c>
     </row>
     <row r="1106">
@@ -28271,7 +28271,7 @@
         </is>
       </c>
       <c r="E1106" t="n">
-        <v>40.70633379954171</v>
+        <v>40.7063337995417</v>
       </c>
     </row>
     <row r="1107">
@@ -28296,7 +28296,7 @@
         </is>
       </c>
       <c r="E1107" t="n">
-        <v>41.85665851671062</v>
+        <v>41.85665851671058</v>
       </c>
     </row>
     <row r="1108">
@@ -28321,7 +28321,7 @@
         </is>
       </c>
       <c r="E1108" t="n">
-        <v>43.68702690468448</v>
+        <v>43.68702690468441</v>
       </c>
     </row>
     <row r="1109">
@@ -28346,7 +28346,7 @@
         </is>
       </c>
       <c r="E1109" t="n">
-        <v>27.849000212329</v>
+        <v>27.84900021232898</v>
       </c>
     </row>
     <row r="1110">
@@ -28371,7 +28371,7 @@
         </is>
       </c>
       <c r="E1110" t="n">
-        <v>41.00438884023177</v>
+        <v>41.00438884023175</v>
       </c>
     </row>
     <row r="1111">
@@ -28396,7 +28396,7 @@
         </is>
       </c>
       <c r="E1111" t="n">
-        <v>42.78609396296963</v>
+        <v>42.78609396296962</v>
       </c>
     </row>
     <row r="1112">
@@ -28521,7 +28521,7 @@
         </is>
       </c>
       <c r="E1116" t="n">
-        <v>29.12176612336827</v>
+        <v>29.12176612336826</v>
       </c>
     </row>
     <row r="1117">
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="E1117" t="n">
-        <v>33.57052608752532</v>
+        <v>33.57052608752533</v>
       </c>
     </row>
     <row r="1118">
@@ -28596,7 +28596,7 @@
         </is>
       </c>
       <c r="E1119" t="n">
-        <v>34.33366664717266</v>
+        <v>34.33366664717269</v>
       </c>
     </row>
     <row r="1120">
@@ -28621,7 +28621,7 @@
         </is>
       </c>
       <c r="E1120" t="n">
-        <v>40.78068177410582</v>
+        <v>40.78068177410583</v>
       </c>
     </row>
     <row r="1121">
@@ -28671,7 +28671,7 @@
         </is>
       </c>
       <c r="E1122" t="n">
-        <v>37.90763385514321</v>
+        <v>37.90763385514324</v>
       </c>
     </row>
     <row r="1123">
@@ -28696,7 +28696,7 @@
         </is>
       </c>
       <c r="E1123" t="n">
-        <v>42.91616147007926</v>
+        <v>42.91616147007927</v>
       </c>
     </row>
     <row r="1124">
@@ -28721,7 +28721,7 @@
         </is>
       </c>
       <c r="E1124" t="n">
-        <v>23.24506042593977</v>
+        <v>23.24506042593978</v>
       </c>
     </row>
     <row r="1125">
@@ -28771,7 +28771,7 @@
         </is>
       </c>
       <c r="E1126" t="n">
-        <v>41.50267253924088</v>
+        <v>41.50267253924087</v>
       </c>
     </row>
     <row r="1127">
@@ -28796,7 +28796,7 @@
         </is>
       </c>
       <c r="E1127" t="n">
-        <v>23.98908408025643</v>
+        <v>23.98908408025641</v>
       </c>
     </row>
     <row r="1128">
@@ -28871,7 +28871,7 @@
         </is>
       </c>
       <c r="E1130" t="n">
-        <v>22.33501020303</v>
+        <v>22.33501020303001</v>
       </c>
     </row>
     <row r="1131">
@@ -28921,7 +28921,7 @@
         </is>
       </c>
       <c r="E1132" t="n">
-        <v>33.84718679170573</v>
+        <v>33.84718679170571</v>
       </c>
     </row>
     <row r="1133">
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="E1133" t="n">
-        <v>22.56163889169229</v>
+        <v>22.56163889169228</v>
       </c>
     </row>
     <row r="1134">
@@ -28971,7 +28971,7 @@
         </is>
       </c>
       <c r="E1134" t="n">
-        <v>31.85982363053548</v>
+        <v>31.85982363053549</v>
       </c>
     </row>
     <row r="1135">
@@ -28996,7 +28996,7 @@
         </is>
       </c>
       <c r="E1135" t="n">
-        <v>40.50054593636729</v>
+        <v>40.5005459363673</v>
       </c>
     </row>
     <row r="1136">
@@ -29021,7 +29021,7 @@
         </is>
       </c>
       <c r="E1136" t="n">
-        <v>30.46692326139565</v>
+        <v>30.46692326139566</v>
       </c>
     </row>
     <row r="1137">
@@ -29096,7 +29096,7 @@
         </is>
       </c>
       <c r="E1139" t="n">
-        <v>22.32132937609794</v>
+        <v>22.32132937609796</v>
       </c>
     </row>
     <row r="1140">
@@ -29121,7 +29121,7 @@
         </is>
       </c>
       <c r="E1140" t="n">
-        <v>31.65457317358557</v>
+        <v>31.65457317358553</v>
       </c>
     </row>
     <row r="1141">
@@ -29146,7 +29146,7 @@
         </is>
       </c>
       <c r="E1141" t="n">
-        <v>40.2263731660934</v>
+        <v>40.22637316609342</v>
       </c>
     </row>
     <row r="1142">
@@ -29196,7 +29196,7 @@
         </is>
       </c>
       <c r="E1143" t="n">
-        <v>25.76118504376855</v>
+        <v>25.76118504376853</v>
       </c>
     </row>
     <row r="1144">
@@ -29221,7 +29221,7 @@
         </is>
       </c>
       <c r="E1144" t="n">
-        <v>29.21953068585612</v>
+        <v>29.21953068585611</v>
       </c>
     </row>
     <row r="1145">
@@ -29271,7 +29271,7 @@
         </is>
       </c>
       <c r="E1146" t="n">
-        <v>22.86773073301213</v>
+        <v>22.86773073301214</v>
       </c>
     </row>
     <row r="1147">
@@ -29296,7 +29296,7 @@
         </is>
       </c>
       <c r="E1147" t="n">
-        <v>25.25865793605686</v>
+        <v>25.25865793605688</v>
       </c>
     </row>
     <row r="1148">
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="E1149" t="n">
-        <v>23.86137517893435</v>
+        <v>23.8613751789343</v>
       </c>
     </row>
     <row r="1150">
@@ -29371,7 +29371,7 @@
         </is>
       </c>
       <c r="E1150" t="n">
-        <v>27.76151006288059</v>
+        <v>27.76151006288056</v>
       </c>
     </row>
     <row r="1151">
@@ -29396,7 +29396,7 @@
         </is>
       </c>
       <c r="E1151" t="n">
-        <v>24.79513038450358</v>
+        <v>24.79513038450359</v>
       </c>
     </row>
     <row r="1152">
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="E1152" t="n">
-        <v>30.93576370249409</v>
+        <v>30.93576370249408</v>
       </c>
     </row>
     <row r="1153">
@@ -29446,7 +29446,7 @@
         </is>
       </c>
       <c r="E1153" t="n">
-        <v>33.04245572632512</v>
+        <v>33.04245572632514</v>
       </c>
     </row>
     <row r="1154">
@@ -29471,7 +29471,7 @@
         </is>
       </c>
       <c r="E1154" t="n">
-        <v>19.99910224179242</v>
+        <v>19.99910224179244</v>
       </c>
     </row>
     <row r="1155">
@@ -29496,7 +29496,7 @@
         </is>
       </c>
       <c r="E1155" t="n">
-        <v>22.44228662803014</v>
+        <v>22.44228662803012</v>
       </c>
     </row>
     <row r="1156">
@@ -29521,7 +29521,7 @@
         </is>
       </c>
       <c r="E1156" t="n">
-        <v>26.14523378414328</v>
+        <v>26.14523378414333</v>
       </c>
     </row>
     <row r="1157">
@@ -29546,7 +29546,7 @@
         </is>
       </c>
       <c r="E1157" t="n">
-        <v>25.72681887952326</v>
+        <v>25.72681887952325</v>
       </c>
     </row>
     <row r="1158">
@@ -29596,7 +29596,7 @@
         </is>
       </c>
       <c r="E1159" t="n">
-        <v>32.03132278460787</v>
+        <v>32.03132278460789</v>
       </c>
     </row>
     <row r="1160">
@@ -29621,7 +29621,7 @@
         </is>
       </c>
       <c r="E1160" t="n">
-        <v>23.22196276462671</v>
+        <v>23.22196276462672</v>
       </c>
     </row>
     <row r="1161">
@@ -29646,7 +29646,7 @@
         </is>
       </c>
       <c r="E1161" t="n">
-        <v>28.95556801003139</v>
+        <v>28.95556801003136</v>
       </c>
     </row>
     <row r="1162">
@@ -29671,7 +29671,7 @@
         </is>
       </c>
       <c r="E1162" t="n">
-        <v>35.15656684789258</v>
+        <v>35.15656684789257</v>
       </c>
     </row>
     <row r="1163">
@@ -29721,7 +29721,7 @@
         </is>
       </c>
       <c r="E1164" t="n">
-        <v>33.80457978777421</v>
+        <v>33.8045797877742</v>
       </c>
     </row>
     <row r="1165">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="E1165" t="n">
-        <v>38.57711289711555</v>
+        <v>38.57711289711557</v>
       </c>
     </row>
     <row r="1166">
@@ -29771,7 +29771,7 @@
         </is>
       </c>
       <c r="E1166" t="n">
-        <v>38.17229039321118</v>
+        <v>38.17229039321117</v>
       </c>
     </row>
     <row r="1167">
@@ -29796,7 +29796,7 @@
         </is>
       </c>
       <c r="E1167" t="n">
-        <v>40.77563434272882</v>
+        <v>40.77563434272881</v>
       </c>
     </row>
     <row r="1168">
@@ -29821,7 +29821,7 @@
         </is>
       </c>
       <c r="E1168" t="n">
-        <v>42.73901268574558</v>
+        <v>42.73901268574563</v>
       </c>
     </row>
     <row r="1169">
@@ -29846,7 +29846,7 @@
         </is>
       </c>
       <c r="E1169" t="n">
-        <v>25.47825577866911</v>
+        <v>25.4782557786691</v>
       </c>
     </row>
     <row r="1170">
@@ -29871,7 +29871,7 @@
         </is>
       </c>
       <c r="E1170" t="n">
-        <v>37.58717479010091</v>
+        <v>37.58717479010092</v>
       </c>
     </row>
     <row r="1171">
@@ -29896,7 +29896,7 @@
         </is>
       </c>
       <c r="E1171" t="n">
-        <v>41.57332603449804</v>
+        <v>41.57332603449808</v>
       </c>
     </row>
     <row r="1172">
@@ -29921,7 +29921,7 @@
         </is>
       </c>
       <c r="E1172" t="n">
-        <v>24.80562461992784</v>
+        <v>24.80562461992782</v>
       </c>
     </row>
     <row r="1173">
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="E1174" t="n">
-        <v>32.83468828768225</v>
+        <v>32.83468828768224</v>
       </c>
     </row>
     <row r="1175">
@@ -29996,7 +29996,7 @@
         </is>
       </c>
       <c r="E1175" t="n">
-        <v>23.39466668752852</v>
+        <v>23.39466668752855</v>
       </c>
     </row>
     <row r="1176">
@@ -30021,7 +30021,7 @@
         </is>
       </c>
       <c r="E1176" t="n">
-        <v>29.47057947761307</v>
+        <v>29.47057947761304</v>
       </c>
     </row>
     <row r="1177">
@@ -30046,7 +30046,7 @@
         </is>
       </c>
       <c r="E1177" t="n">
-        <v>36.53441563504448</v>
+        <v>36.5344156350445</v>
       </c>
     </row>
     <row r="1178">
@@ -30071,7 +30071,7 @@
         </is>
       </c>
       <c r="E1178" t="n">
-        <v>22.35314577891014</v>
+        <v>22.35314577891015</v>
       </c>
     </row>
     <row r="1179">
@@ -30096,7 +30096,7 @@
         </is>
       </c>
       <c r="E1179" t="n">
-        <v>34.57508805244038</v>
+        <v>34.57508805244037</v>
       </c>
     </row>
     <row r="1180">
@@ -30121,7 +30121,7 @@
         </is>
       </c>
       <c r="E1180" t="n">
-        <v>41.60185648766269</v>
+        <v>41.60185648766268</v>
       </c>
     </row>
     <row r="1181">
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="E1181" t="n">
-        <v>36.79287379831224</v>
+        <v>36.79287379831221</v>
       </c>
     </row>
     <row r="1182">
@@ -30171,7 +30171,7 @@
         </is>
       </c>
       <c r="E1182" t="n">
-        <v>38.42434629540412</v>
+        <v>38.42434629540413</v>
       </c>
     </row>
     <row r="1183">
@@ -30196,7 +30196,7 @@
         </is>
       </c>
       <c r="E1183" t="n">
-        <v>43.42638142989776</v>
+        <v>43.42638142989782</v>
       </c>
     </row>
     <row r="1184">
@@ -30221,7 +30221,7 @@
         </is>
       </c>
       <c r="E1184" t="n">
-        <v>23.56284003785117</v>
+        <v>23.56284003785115</v>
       </c>
     </row>
     <row r="1185">
@@ -30246,7 +30246,7 @@
         </is>
       </c>
       <c r="E1185" t="n">
-        <v>36.70891818391352</v>
+        <v>36.70891818391355</v>
       </c>
     </row>
     <row r="1186">
@@ -30271,7 +30271,7 @@
         </is>
       </c>
       <c r="E1186" t="n">
-        <v>42.17107490805533</v>
+        <v>42.17107490805535</v>
       </c>
     </row>
     <row r="1187">
@@ -30321,7 +30321,7 @@
         </is>
       </c>
       <c r="E1188" t="n">
-        <v>29.39108737103327</v>
+        <v>29.39108737103328</v>
       </c>
     </row>
     <row r="1189">
@@ -30371,7 +30371,7 @@
         </is>
       </c>
       <c r="E1190" t="n">
-        <v>23.20361692084584</v>
+        <v>23.20361692084582</v>
       </c>
     </row>
     <row r="1191">
@@ -30396,7 +30396,7 @@
         </is>
       </c>
       <c r="E1191" t="n">
-        <v>28.96771285822471</v>
+        <v>28.96771285822472</v>
       </c>
     </row>
     <row r="1192">
@@ -30421,7 +30421,7 @@
         </is>
       </c>
       <c r="E1192" t="n">
-        <v>35.56117065359245</v>
+        <v>35.56117065359249</v>
       </c>
     </row>
     <row r="1193">
@@ -30446,7 +30446,7 @@
         </is>
       </c>
       <c r="E1193" t="n">
-        <v>21.16975719902467</v>
+        <v>21.16975719902468</v>
       </c>
     </row>
     <row r="1194">
@@ -30471,7 +30471,7 @@
         </is>
       </c>
       <c r="E1194" t="n">
-        <v>32.97679420023566</v>
+        <v>32.97679420023565</v>
       </c>
     </row>
     <row r="1195">
@@ -30496,7 +30496,7 @@
         </is>
       </c>
       <c r="E1195" t="n">
-        <v>40.3009253324126</v>
+        <v>40.30092533241255</v>
       </c>
     </row>
     <row r="1196">
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="E1197" t="n">
-        <v>33.51759396073101</v>
+        <v>33.51759396073103</v>
       </c>
     </row>
     <row r="1198">
@@ -30571,7 +30571,7 @@
         </is>
       </c>
       <c r="E1198" t="n">
-        <v>41.04433583319958</v>
+        <v>41.04433583319963</v>
       </c>
     </row>
     <row r="1199">
@@ -30621,7 +30621,7 @@
         </is>
       </c>
       <c r="E1200" t="n">
-        <v>34.29203266217723</v>
+        <v>34.29203266217724</v>
       </c>
     </row>
     <row r="1201">
@@ -30646,7 +30646,7 @@
         </is>
       </c>
       <c r="E1201" t="n">
-        <v>39.99458586168056</v>
+        <v>39.9945858616806</v>
       </c>
     </row>
     <row r="1202">
@@ -30671,7 +30671,7 @@
         </is>
       </c>
       <c r="E1202" t="n">
-        <v>27.66873534589077</v>
+        <v>27.66873534589078</v>
       </c>
     </row>
     <row r="1203">
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="E1203" t="n">
-        <v>31.07828316183982</v>
+        <v>31.07828316183983</v>
       </c>
     </row>
     <row r="1204">
@@ -30746,7 +30746,7 @@
         </is>
       </c>
       <c r="E1205" t="n">
-        <v>22.051787785587</v>
+        <v>22.05178778558702</v>
       </c>
     </row>
     <row r="1206">
@@ -30771,7 +30771,7 @@
         </is>
       </c>
       <c r="E1206" t="n">
-        <v>27.10643002967097</v>
+        <v>27.10643002967099</v>
       </c>
     </row>
     <row r="1207">
@@ -30796,7 +30796,7 @@
         </is>
       </c>
       <c r="E1207" t="n">
-        <v>28.11377008191078</v>
+        <v>28.11377008191076</v>
       </c>
     </row>
     <row r="1208">
@@ -30846,7 +30846,7 @@
         </is>
       </c>
       <c r="E1209" t="n">
-        <v>32.05391663048807</v>
+        <v>32.05391663048808</v>
       </c>
     </row>
     <row r="1210">
@@ -30896,7 +30896,7 @@
         </is>
       </c>
       <c r="E1211" t="n">
-        <v>31.56699862129105</v>
+        <v>31.56699862129106</v>
       </c>
     </row>
     <row r="1212">
@@ -30921,7 +30921,7 @@
         </is>
       </c>
       <c r="E1212" t="n">
-        <v>35.85040866225305</v>
+        <v>35.85040866225306</v>
       </c>
     </row>
     <row r="1213">
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="E1213" t="n">
-        <v>37.3512477867019</v>
+        <v>37.35124778670189</v>
       </c>
     </row>
     <row r="1214">
@@ -30996,7 +30996,7 @@
         </is>
       </c>
       <c r="E1215" t="n">
-        <v>30.38617019838266</v>
+        <v>30.38617019838267</v>
       </c>
     </row>
     <row r="1216">
@@ -31096,7 +31096,7 @@
         </is>
       </c>
       <c r="E1219" t="n">
-        <v>35.28160513666385</v>
+        <v>35.28160513666382</v>
       </c>
     </row>
     <row r="1220">
@@ -31171,7 +31171,7 @@
         </is>
       </c>
       <c r="E1222" t="n">
-        <v>34.93179903669191</v>
+        <v>34.93179903669192</v>
       </c>
     </row>
     <row r="1223">
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="E1224" t="n">
-        <v>41.26013013107369</v>
+        <v>41.26013013107372</v>
       </c>
     </row>
     <row r="1225">
@@ -31246,7 +31246,7 @@
         </is>
       </c>
       <c r="E1225" t="n">
-        <v>41.98928886909275</v>
+        <v>41.98928886909273</v>
       </c>
     </row>
     <row r="1226">
@@ -31271,7 +31271,7 @@
         </is>
       </c>
       <c r="E1226" t="n">
-        <v>43.21564464922415</v>
+        <v>43.21564464922414</v>
       </c>
     </row>
     <row r="1227">
@@ -31296,7 +31296,7 @@
         </is>
       </c>
       <c r="E1227" t="n">
-        <v>44.30501770430961</v>
+        <v>44.30501770430964</v>
       </c>
     </row>
     <row r="1228">
@@ -31321,7 +31321,7 @@
         </is>
       </c>
       <c r="E1228" t="n">
-        <v>44.52181498713766</v>
+        <v>44.52181498713767</v>
       </c>
     </row>
     <row r="1229">
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="E1229" t="n">
-        <v>32.47984705403712</v>
+        <v>32.47984705403711</v>
       </c>
     </row>
     <row r="1230">
@@ -31371,7 +31371,7 @@
         </is>
       </c>
       <c r="E1230" t="n">
-        <v>43.18129577150868</v>
+        <v>43.1812957715087</v>
       </c>
     </row>
     <row r="1231">
@@ -31396,7 +31396,7 @@
         </is>
       </c>
       <c r="E1231" t="n">
-        <v>43.89028173149863</v>
+        <v>43.89028173149865</v>
       </c>
     </row>
     <row r="1232">
@@ -31421,7 +31421,7 @@
         </is>
       </c>
       <c r="E1232" t="n">
-        <v>29.16510407337213</v>
+        <v>29.16510407337214</v>
       </c>
     </row>
     <row r="1233">
@@ -31471,7 +31471,7 @@
         </is>
       </c>
       <c r="E1234" t="n">
-        <v>35.0276700464772</v>
+        <v>35.02767004647721</v>
       </c>
     </row>
     <row r="1235">
@@ -31496,7 +31496,7 @@
         </is>
       </c>
       <c r="E1235" t="n">
-        <v>23.64345744938002</v>
+        <v>23.64345744938004</v>
       </c>
     </row>
     <row r="1236">
@@ -31521,7 +31521,7 @@
         </is>
       </c>
       <c r="E1236" t="n">
-        <v>33.49185232815717</v>
+        <v>33.49185232815719</v>
       </c>
     </row>
     <row r="1237">
@@ -31546,7 +31546,7 @@
         </is>
       </c>
       <c r="E1237" t="n">
-        <v>35.30880559902057</v>
+        <v>35.30880559902058</v>
       </c>
     </row>
     <row r="1238">
@@ -31571,7 +31571,7 @@
         </is>
       </c>
       <c r="E1238" t="n">
-        <v>24.3048386864947</v>
+        <v>24.30483868649472</v>
       </c>
     </row>
     <row r="1239">
@@ -31621,7 +31621,7 @@
         </is>
       </c>
       <c r="E1240" t="n">
-        <v>43.30034627751979</v>
+        <v>43.3003462775198</v>
       </c>
     </row>
     <row r="1241">
@@ -31646,7 +31646,7 @@
         </is>
       </c>
       <c r="E1241" t="n">
-        <v>42.45848666265308</v>
+        <v>42.45848666265307</v>
       </c>
     </row>
     <row r="1242">
@@ -31671,7 +31671,7 @@
         </is>
       </c>
       <c r="E1242" t="n">
-        <v>43.09972101270609</v>
+        <v>43.0997210127061</v>
       </c>
     </row>
     <row r="1243">
@@ -31696,7 +31696,7 @@
         </is>
       </c>
       <c r="E1243" t="n">
-        <v>44.87743611580119</v>
+        <v>44.87743611580118</v>
       </c>
     </row>
     <row r="1244">
@@ -31721,7 +31721,7 @@
         </is>
       </c>
       <c r="E1244" t="n">
-        <v>29.78251447914077</v>
+        <v>29.78251447914079</v>
       </c>
     </row>
     <row r="1245">
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="E1245" t="n">
-        <v>42.15098155142304</v>
+        <v>42.15098155142306</v>
       </c>
     </row>
     <row r="1246">
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="E1246" t="n">
-        <v>43.80017811043557</v>
+        <v>43.80017811043558</v>
       </c>
     </row>
     <row r="1247">
@@ -31796,7 +31796,7 @@
         </is>
       </c>
       <c r="E1247" t="n">
-        <v>27.45208965153277</v>
+        <v>27.45208965153278</v>
       </c>
     </row>
     <row r="1248">
@@ -31821,7 +31821,7 @@
         </is>
       </c>
       <c r="E1248" t="n">
-        <v>33.61010219235825</v>
+        <v>33.61010219235826</v>
       </c>
     </row>
     <row r="1249">
@@ -31846,7 +31846,7 @@
         </is>
       </c>
       <c r="E1249" t="n">
-        <v>35.31203340594065</v>
+        <v>35.31203340594067</v>
       </c>
     </row>
     <row r="1250">
@@ -31871,7 +31871,7 @@
         </is>
       </c>
       <c r="E1250" t="n">
-        <v>23.70261869447951</v>
+        <v>23.70261869447952</v>
       </c>
     </row>
     <row r="1251">
@@ -31921,7 +31921,7 @@
         </is>
       </c>
       <c r="E1252" t="n">
-        <v>35.62355956550851</v>
+        <v>35.62355956550853</v>
       </c>
     </row>
     <row r="1253">
@@ -31946,7 +31946,7 @@
         </is>
       </c>
       <c r="E1253" t="n">
-        <v>23.85633806488849</v>
+        <v>23.8563380648885</v>
       </c>
     </row>
     <row r="1254">
@@ -31971,7 +31971,7 @@
         </is>
       </c>
       <c r="E1254" t="n">
-        <v>39.46605848106477</v>
+        <v>39.46605848106478</v>
       </c>
     </row>
     <row r="1255">
@@ -31996,7 +31996,7 @@
         </is>
       </c>
       <c r="E1255" t="n">
-        <v>42.99150156606229</v>
+        <v>42.99150156606228</v>
       </c>
     </row>
     <row r="1256">
@@ -32046,7 +32046,7 @@
         </is>
       </c>
       <c r="E1257" t="n">
-        <v>40.27752056021236</v>
+        <v>40.27752056021239</v>
       </c>
     </row>
     <row r="1258">
@@ -32071,7 +32071,7 @@
         </is>
       </c>
       <c r="E1258" t="n">
-        <v>43.08084180404572</v>
+        <v>43.08084180404575</v>
       </c>
     </row>
     <row r="1259">
@@ -32096,7 +32096,7 @@
         </is>
       </c>
       <c r="E1259" t="n">
-        <v>27.2096032858566</v>
+        <v>27.20960328585659</v>
       </c>
     </row>
     <row r="1260">
@@ -32121,7 +32121,7 @@
         </is>
       </c>
       <c r="E1260" t="n">
-        <v>39.92470703144917</v>
+        <v>39.92470703144915</v>
       </c>
     </row>
     <row r="1261">
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="E1261" t="n">
-        <v>43.04491626931533</v>
+        <v>43.04491626931532</v>
       </c>
     </row>
     <row r="1262">
@@ -32171,7 +32171,7 @@
         </is>
       </c>
       <c r="E1262" t="n">
-        <v>24.4508233458215</v>
+        <v>24.45082334582151</v>
       </c>
     </row>
     <row r="1263">
@@ -32196,7 +32196,7 @@
         </is>
       </c>
       <c r="E1263" t="n">
-        <v>28.96098544894605</v>
+        <v>28.96098544894606</v>
       </c>
     </row>
     <row r="1264">
@@ -32246,7 +32246,7 @@
         </is>
       </c>
       <c r="E1265" t="n">
-        <v>21.03011019348273</v>
+        <v>21.03011019348272</v>
       </c>
     </row>
     <row r="1266">
@@ -32271,7 +32271,7 @@
         </is>
       </c>
       <c r="E1266" t="n">
-        <v>24.7418395850734</v>
+        <v>24.74183958507342</v>
       </c>
     </row>
     <row r="1267">
@@ -32321,7 +32321,7 @@
         </is>
       </c>
       <c r="E1268" t="n">
-        <v>21.40205485477472</v>
+        <v>21.40205485477471</v>
       </c>
     </row>
     <row r="1269">
@@ -32346,7 +32346,7 @@
         </is>
       </c>
       <c r="E1269" t="n">
-        <v>29.05525552021064</v>
+        <v>29.05525552021065</v>
       </c>
     </row>
     <row r="1270">
@@ -32371,7 +32371,7 @@
         </is>
       </c>
       <c r="E1270" t="n">
-        <v>32.15767496801939</v>
+        <v>32.15767496801937</v>
       </c>
     </row>
     <row r="1271">
@@ -32396,7 +32396,7 @@
         </is>
       </c>
       <c r="E1271" t="n">
-        <v>29.4243929504395</v>
+        <v>29.42439295043951</v>
       </c>
     </row>
     <row r="1272">
@@ -32446,7 +32446,7 @@
         </is>
       </c>
       <c r="E1273" t="n">
-        <v>35.45357743010807</v>
+        <v>35.45357743010808</v>
       </c>
     </row>
     <row r="1274">
@@ -32471,7 +32471,7 @@
         </is>
       </c>
       <c r="E1274" t="n">
-        <v>22.05092832192204</v>
+        <v>22.05092832192205</v>
       </c>
     </row>
     <row r="1275">
@@ -32496,7 +32496,7 @@
         </is>
       </c>
       <c r="E1275" t="n">
-        <v>28.14456037169039</v>
+        <v>28.1445603716904</v>
       </c>
     </row>
     <row r="1276">
@@ -32521,7 +32521,7 @@
         </is>
       </c>
       <c r="E1276" t="n">
-        <v>31.44516001011148</v>
+        <v>31.44516001011145</v>
       </c>
     </row>
     <row r="1277">
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="E1277" t="n">
-        <v>26.85978966295014</v>
+        <v>26.85978966295013</v>
       </c>
     </row>
     <row r="1278">
@@ -32621,7 +32621,7 @@
         </is>
       </c>
       <c r="E1280" t="n">
-        <v>23.28695771317392</v>
+        <v>23.28695771317393</v>
       </c>
     </row>
     <row r="1281">
@@ -32646,7 +32646,7 @@
         </is>
       </c>
       <c r="E1281" t="n">
-        <v>33.58370767707742</v>
+        <v>33.58370767707744</v>
       </c>
     </row>
     <row r="1282">
@@ -32671,7 +32671,7 @@
         </is>
       </c>
       <c r="E1282" t="n">
-        <v>34.31157322303527</v>
+        <v>34.31157322303526</v>
       </c>
     </row>
     <row r="1283">
@@ -32696,7 +32696,7 @@
         </is>
       </c>
       <c r="E1283" t="n">
-        <v>23.63551058999044</v>
+        <v>23.63551058999045</v>
       </c>
     </row>
     <row r="1284">
@@ -32721,7 +32721,7 @@
         </is>
       </c>
       <c r="E1284" t="n">
-        <v>40.40405438312921</v>
+        <v>40.40405438312923</v>
       </c>
     </row>
     <row r="1285">
@@ -32746,7 +32746,7 @@
         </is>
       </c>
       <c r="E1285" t="n">
-        <v>41.8306565527086</v>
+        <v>41.83065655270861</v>
       </c>
     </row>
     <row r="1286">
@@ -32771,7 +32771,7 @@
         </is>
       </c>
       <c r="E1286" t="n">
-        <v>42.59599016508676</v>
+        <v>42.59599016508675</v>
       </c>
     </row>
     <row r="1287">
@@ -32796,7 +32796,7 @@
         </is>
       </c>
       <c r="E1287" t="n">
-        <v>44.43061252922691</v>
+        <v>44.43061252922688</v>
       </c>
     </row>
     <row r="1288">
@@ -32871,7 +32871,7 @@
         </is>
       </c>
       <c r="E1290" t="n">
-        <v>42.5924686995436</v>
+        <v>42.59246869954359</v>
       </c>
     </row>
     <row r="1291">
@@ -32896,7 +32896,7 @@
         </is>
       </c>
       <c r="E1291" t="n">
-        <v>43.2418743712694</v>
+        <v>43.24187437126941</v>
       </c>
     </row>
     <row r="1292">
@@ -32921,7 +32921,7 @@
         </is>
       </c>
       <c r="E1292" t="n">
-        <v>24.92191472812863</v>
+        <v>24.92191472812864</v>
       </c>
     </row>
     <row r="1293">
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="E1296" t="n">
-        <v>32.34975477327779</v>
+        <v>32.34975477327781</v>
       </c>
     </row>
     <row r="1297">
@@ -33071,7 +33071,7 @@
         </is>
       </c>
       <c r="E1298" t="n">
-        <v>23.10321539446206</v>
+        <v>23.10321539446208</v>
       </c>
     </row>
     <row r="1299">
@@ -33096,7 +33096,7 @@
         </is>
       </c>
       <c r="E1299" t="n">
-        <v>38.4445974845928</v>
+        <v>38.44459748459284</v>
       </c>
     </row>
     <row r="1300">
@@ -33121,7 +33121,7 @@
         </is>
       </c>
       <c r="E1300" t="n">
-        <v>42.89625413320298</v>
+        <v>42.89625413320299</v>
       </c>
     </row>
     <row r="1301">
@@ -33196,7 +33196,7 @@
         </is>
       </c>
       <c r="E1303" t="n">
-        <v>45.12755740290934</v>
+        <v>45.12755740290933</v>
       </c>
     </row>
     <row r="1304">
@@ -33246,7 +33246,7 @@
         </is>
       </c>
       <c r="E1305" t="n">
-        <v>41.09163073902767</v>
+        <v>41.09163073902769</v>
       </c>
     </row>
     <row r="1306">
@@ -33296,7 +33296,7 @@
         </is>
       </c>
       <c r="E1307" t="n">
-        <v>23.40908791145672</v>
+        <v>23.40908791145673</v>
       </c>
     </row>
     <row r="1308">
@@ -33321,7 +33321,7 @@
         </is>
       </c>
       <c r="E1308" t="n">
-        <v>29.98308878786869</v>
+        <v>29.98308878786868</v>
       </c>
     </row>
     <row r="1309">
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="E1309" t="n">
-        <v>33.16488375006951</v>
+        <v>33.1648837500695</v>
       </c>
     </row>
     <row r="1310">
@@ -33371,7 +33371,7 @@
         </is>
       </c>
       <c r="E1310" t="n">
-        <v>21.97502469144951</v>
+        <v>21.97502469144953</v>
       </c>
     </row>
     <row r="1311">
@@ -33396,7 +33396,7 @@
         </is>
       </c>
       <c r="E1311" t="n">
-        <v>29.27184655089376</v>
+        <v>29.27184655089377</v>
       </c>
     </row>
     <row r="1312">
@@ -33421,7 +33421,7 @@
         </is>
       </c>
       <c r="E1312" t="n">
-        <v>33.58627452847334</v>
+        <v>33.58627452847333</v>
       </c>
     </row>
     <row r="1313">
@@ -33446,7 +33446,7 @@
         </is>
       </c>
       <c r="E1313" t="n">
-        <v>21.73602926396486</v>
+        <v>21.73602926396487</v>
       </c>
     </row>
     <row r="1314">
@@ -33471,7 +33471,7 @@
         </is>
       </c>
       <c r="E1314" t="n">
-        <v>33.73151164353244</v>
+        <v>33.73151164353245</v>
       </c>
     </row>
     <row r="1315">
@@ -33496,7 +33496,7 @@
         </is>
       </c>
       <c r="E1315" t="n">
-        <v>40.71763147098613</v>
+        <v>40.71763147098614</v>
       </c>
     </row>
     <row r="1316">
@@ -33546,7 +33546,7 @@
         </is>
       </c>
       <c r="E1317" t="n">
-        <v>36.5636335934275</v>
+        <v>36.56363359342747</v>
       </c>
     </row>
     <row r="1318">
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="E1318" t="n">
-        <v>41.21423071558058</v>
+        <v>41.21423071558056</v>
       </c>
     </row>
     <row r="1319">
@@ -33596,7 +33596,7 @@
         </is>
       </c>
       <c r="E1319" t="n">
-        <v>22.17687899613188</v>
+        <v>22.17687899613189</v>
       </c>
     </row>
     <row r="1320">
@@ -33621,7 +33621,7 @@
         </is>
       </c>
       <c r="E1320" t="n">
-        <v>36.49728620811965</v>
+        <v>36.49728620811966</v>
       </c>
     </row>
     <row r="1321">
